--- a/Session 6/homework/BCTC_Vinamilk.xlsx
+++ b/Session 6/homework/BCTC_Vinamilk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Cột 1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Cột 5</t>
   </si>
   <si>
+    <t>Cột 6</t>
+  </si>
+  <si>
     <t>Chỉ tiêu</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>Quý 3-2017</t>
+  </si>
+  <si>
+    <t>Tăng trưởng</t>
   </si>
   <si>
     <t>1. Doanh thu bán hàng và cung cấp dịch vụ</t>
@@ -412,7 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,14 +450,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,443 +755,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Session 6/homework/BCTC_Vinamilk.xlsx
+++ b/Session 6/homework/BCTC_Vinamilk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
   <si>
     <t>Cột 1</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>13,308,557,627,263</t>
+  </si>
+  <si>
+    <t>ai làm được chỉ giúp với.:(((</t>
   </si>
   <si>
     <t>2. Các khoản giảm trừ doanh thu</t>
@@ -418,7 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,14 +761,14 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,405 +827,453 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Session 6/homework/BCTC_Vinamilk.xlsx
+++ b/Session 6/homework/BCTC_Vinamilk.xlsx
@@ -67,7 +67,7 @@
     <t>13,308,557,627,263</t>
   </si>
   <si>
-    <t>ai làm được chỉ giúp với.:(((</t>
+    <t>I'm thinking about it</t>
   </si>
   <si>
     <t>2. Các khoản giảm trừ doanh thu</t>
@@ -421,7 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,14 +761,14 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
